--- a/analysis/metadata/P11_1/P11_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_1/P11_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>19/07/2020 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>19/07/2020 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -507,11 +507,6 @@
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -546,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -571,7 +566,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -580,11 +575,6 @@
         </is>
       </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -619,7 +609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -644,7 +634,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -653,11 +643,6 @@
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -692,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,7 +702,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -726,11 +711,6 @@
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -765,7 +745,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -790,7 +770,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -799,11 +779,6 @@
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -838,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -863,7 +838,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -872,11 +847,6 @@
         </is>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -911,7 +881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,7 +906,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -945,11 +915,6 @@
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -984,7 +949,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1009,7 +974,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1018,11 +983,6 @@
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -1057,7 +1017,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1082,7 +1042,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1091,11 +1051,6 @@
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -1130,7 +1085,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1155,7 +1110,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1164,11 +1119,6 @@
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -1203,7 +1153,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1228,7 +1178,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1237,11 +1187,6 @@
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -1276,7 +1221,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1301,7 +1246,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1310,11 +1255,6 @@
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -1349,7 +1289,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1374,7 +1314,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1383,11 +1323,6 @@
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -1422,7 +1357,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1447,7 +1382,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1456,11 +1391,6 @@
         </is>
       </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>
@@ -1495,7 +1425,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1520,7 +1450,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1529,11 +1459,6 @@
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Open sea and tidal areas</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Open sea and tidal areas</t>
         </is>

--- a/analysis/metadata/P11_1/P11_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_1/P11_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>19/07/2020 00:00</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19/07/2020 00:00</t>
+          <t>2020-07-19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">

--- a/analysis/metadata/P11_1/P11_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P11_1/P11_1_minimal_metadata.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sediment</t>
+          <t>soil</t>
         </is>
       </c>
       <c r="C2">
@@ -458,7 +458,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>coast</t>
+          <t>natural_soil</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
